--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ann\Desktop\L\gantt chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F6A0D-FDD3-433F-9E2B-8AB340C1AEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3735BD-7820-4040-8CA4-F6C8F7FEC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A841486A-6952-4C12-8402-C50460834E1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A841486A-6952-4C12-8402-C50460834E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -148,33 +148,6 @@
     <t>Review Stage</t>
   </si>
   <si>
-    <t>Mike Smith</t>
-  </si>
-  <si>
-    <t>Sarah Lee</t>
-  </si>
-  <si>
-    <t>Arnold West</t>
-  </si>
-  <si>
-    <t>Jeff Shunar</t>
-  </si>
-  <si>
-    <t>Travis Scor</t>
-  </si>
-  <si>
-    <t>Verna Hum</t>
-  </si>
-  <si>
-    <t>Raleigh Lee</t>
-  </si>
-  <si>
-    <t>Jess Yuan</t>
-  </si>
-  <si>
-    <t>Anna Glen</t>
-  </si>
-  <si>
     <t>Weeks in Progress:</t>
   </si>
   <si>
@@ -184,10 +157,31 @@
     <t xml:space="preserve">Project Name: </t>
   </si>
   <si>
-    <t>ABC Test</t>
+    <t>Today's Date:</t>
   </si>
   <si>
-    <t>Today's Date:</t>
+    <t>Grace Abel</t>
+  </si>
+  <si>
+    <t>Ann Ulu</t>
+  </si>
+  <si>
+    <t>Favour Lene</t>
+  </si>
+  <si>
+    <t>Jasmine Reva</t>
+  </si>
+  <si>
+    <t>Azure Cloud</t>
+  </si>
+  <si>
+    <t>Rose Yenn</t>
+  </si>
+  <si>
+    <t>Nonso Buchi</t>
+  </si>
+  <si>
+    <t>Sharon Stone</t>
   </si>
 </sst>
 </file>
@@ -195,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="\W\k\ #"/>
+    <numFmt numFmtId="164" formatCode="\W\k\ #"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -259,13 +253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,18 +281,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9E7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +398,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,57 +438,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -517,10 +491,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFB337F"/>
+      <color rgb="FFFC6CA3"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFD7D7D7"/>
       <color rgb="FF54B531"/>
@@ -882,7 +870,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2975,11 +2963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E38BC0-D592-49F2-8DD5-1011A73BE376}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,175 +2977,159 @@
     <col min="7" max="31" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:31" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:31" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="32">
         <v>45301</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="32">
         <v>45348</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:31" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="A5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="34">
         <f>ROUNDUP((B4-B3)/7,0)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:31" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:31" s="29" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="30">
+    <row r="7" spans="1:31" s="26" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25">
         <f>B3</f>
         <v>45301</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="25">
         <f>G7+7</f>
         <v>45308</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="25">
         <f t="shared" ref="I7:AE7" si="0">H7+7</f>
         <v>45315</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="25">
         <f t="shared" si="0"/>
         <v>45322</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="25">
         <f t="shared" si="0"/>
         <v>45329</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <f t="shared" si="0"/>
         <v>45336</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="25">
         <f t="shared" si="0"/>
         <v>45343</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="25">
         <f t="shared" si="0"/>
         <v>45350</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="25">
         <f t="shared" si="0"/>
         <v>45357</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="25">
         <f t="shared" si="0"/>
         <v>45364</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="25">
         <f t="shared" si="0"/>
         <v>45371</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="25">
         <f t="shared" si="0"/>
         <v>45378</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="25">
         <f t="shared" si="0"/>
         <v>45385</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="25">
         <f t="shared" si="0"/>
         <v>45392</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="25">
         <f t="shared" si="0"/>
         <v>45399</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="25">
         <f t="shared" si="0"/>
         <v>45406</v>
       </c>
-      <c r="W7" s="30">
+      <c r="W7" s="25">
         <f t="shared" si="0"/>
         <v>45413</v>
       </c>
-      <c r="X7" s="30">
+      <c r="X7" s="25">
         <f t="shared" si="0"/>
         <v>45420</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="25">
         <f t="shared" si="0"/>
         <v>45427</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="25">
         <f t="shared" si="0"/>
         <v>45434</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="25">
         <f t="shared" si="0"/>
         <v>45441</v>
       </c>
-      <c r="AB7" s="30">
+      <c r="AB7" s="25">
         <f t="shared" si="0"/>
         <v>45448</v>
       </c>
-      <c r="AC7" s="30">
+      <c r="AC7" s="25">
         <f t="shared" si="0"/>
         <v>45455</v>
       </c>
-      <c r="AD7" s="30">
+      <c r="AD7" s="25">
         <f t="shared" si="0"/>
         <v>45462</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="25">
         <f t="shared" si="0"/>
         <v>45469</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="29" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" s="26" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
@@ -3176,771 +3148,768 @@
       <c r="F8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="28">
         <v>1</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="28">
         <f>G8+1</f>
         <v>2</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="28">
         <f t="shared" ref="I8:AE8" si="1">H8+1</f>
         <v>3</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="28">
         <f>W8+1</f>
         <v>18</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AA8" s="37">
+      <c r="AA8" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AB8" s="37">
+      <c r="AB8" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AC8" s="28">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AD8" s="37">
+      <c r="AD8" s="28">
         <f>AC8+1</f>
         <v>24</v>
       </c>
-      <c r="AE8" s="37">
+      <c r="AE8" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="16">
         <v>45301</v>
       </c>
-      <c r="D10" s="18">
-        <v>45351</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="16">
+        <v>45346</v>
+      </c>
+      <c r="E10" s="15">
         <f>IF(AND(C10="",D10=""),"",D10-C10)</f>
-        <v>50</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="18">
-        <v>45310</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45304</v>
+      </c>
+      <c r="D11" s="16">
         <v>45380</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <f t="shared" ref="E11:E23" si="2">IF(AND(C11="",D11=""),"",D11-C11)</f>
-        <v>70</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="18">
-        <v>45329</v>
-      </c>
-      <c r="D12" s="18">
-        <v>45377</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45330</v>
+      </c>
+      <c r="D12" s="16">
+        <v>45376</v>
+      </c>
+      <c r="E12" s="15">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
+        <v>46</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="18">
-        <v>45344</v>
-      </c>
-      <c r="D13" s="18">
-        <v>45410</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="B13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16">
+        <v>45342</v>
+      </c>
+      <c r="D13" s="16">
+        <v>45409</v>
+      </c>
+      <c r="E13" s="15">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
     </row>
-    <row r="14" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="str">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="16">
+        <v>45359</v>
+      </c>
+      <c r="D15" s="16">
+        <v>45383</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16">
+        <v>45373</v>
+      </c>
+      <c r="D16" s="16">
+        <v>45433</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16">
+        <v>45379</v>
+      </c>
+      <c r="D17" s="16">
+        <v>45421</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18">
-        <v>45353</v>
-      </c>
-      <c r="D15" s="18">
-        <v>45385</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="C18" s="16">
+        <v>45388</v>
+      </c>
+      <c r="D18" s="16">
+        <v>45443</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="16">
+        <v>45395</v>
+      </c>
+      <c r="D19" s="16">
+        <v>45425</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+    </row>
+    <row r="20" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45375</v>
+      </c>
+      <c r="D21" s="16">
+        <v>45407</v>
+      </c>
+      <c r="E21" s="15">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F15" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
+      <c r="F21" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18">
-        <v>45373</v>
-      </c>
-      <c r="D16" s="18">
-        <v>45433</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="16">
+        <v>45383</v>
+      </c>
+      <c r="D22" s="16">
+        <v>45443</v>
+      </c>
+      <c r="E22" s="15">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
+      <c r="F22" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="18">
-        <v>45381</v>
-      </c>
-      <c r="D17" s="18">
-        <v>45421</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="B23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="16">
+        <v>45391</v>
+      </c>
+      <c r="D23" s="16">
+        <v>45431</v>
+      </c>
+      <c r="E23" s="15">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="F17" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="18">
-        <v>45388</v>
-      </c>
-      <c r="D18" s="18">
-        <v>45443</v>
-      </c>
-      <c r="E18" s="19">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="F18" s="20">
-        <v>1</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="18">
-        <v>45395</v>
-      </c>
-      <c r="D19" s="18">
-        <v>45425</v>
-      </c>
-      <c r="E19" s="19">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-    </row>
-    <row r="20" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="18">
-        <v>45375</v>
-      </c>
-      <c r="D21" s="18">
-        <v>45407</v>
-      </c>
-      <c r="E21" s="19">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="F21" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="18">
-        <v>45383</v>
-      </c>
-      <c r="D22" s="18">
-        <v>45443</v>
-      </c>
-      <c r="E22" s="19">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="18">
-        <v>45391</v>
-      </c>
-      <c r="D23" s="18">
-        <v>45431</v>
-      </c>
-      <c r="E23" s="19">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="J25" s="16"/>
+      <c r="F23" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F9:F23">
@@ -3957,17 +3926,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G9:AE23">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>G$8=$B$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10:AE23">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(G$7&gt;=$C10,G$7&lt;=$C10+($E10*$F10)-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(G$7&gt;=$C10, G$7&lt;=$D10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:AE23">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>G$8=$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4000,168 +3969,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994021E9-B34B-4228-93AC-68489A7D01A9}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="11"/>
-    <col min="2" max="2" width="25.21875" style="12"/>
-    <col min="3" max="3" width="25.21875" style="4"/>
-    <col min="4" max="4" width="25.21875" style="12"/>
-    <col min="5" max="16384" width="25.21875" style="4"/>
+    <col min="1" max="1" width="25.21875" style="10"/>
+    <col min="2" max="2" width="25.21875" style="11"/>
+    <col min="3" max="3" width="25.21875" style="3"/>
+    <col min="4" max="4" width="25.21875" style="11"/>
+    <col min="5" max="16384" width="25.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>45139</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>45160</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>45139</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>30</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>45181</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>45153</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>45160</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>45179</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>45191</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>45174</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>45184</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>45189</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>7</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>45198</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>45200</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>45201</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
     </row>
